--- a/n.xlsx
+++ b/n.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6e16e05619048d6/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6e16e05619048d6/ドキュメント/Creating_Search_Equation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{105E7AC0-D231-4778-9E6F-2580C73BEE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEA5A59-3C56-427B-B5ED-613B2949807E}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{105E7AC0-D231-4778-9E6F-2580C73BEE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{227A63CD-1860-42C6-AC60-2228AB7DF022}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{9BC8A2D3-7E39-4290-BA36-6D9E30194A65}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9BC8A2D3-7E39-4290-BA36-6D9E30194A65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="82">
   <si>
     <t>式ブロック</t>
   </si>
@@ -363,6 +363,134 @@
   </si>
   <si>
     <t>(antenna+Antenna+ａｎｔｅｎｎａ+Ａｎｔｅｎｎａ)/TX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>互いに複数個</t>
+    <rPh sb="0" eb="1">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フクスウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をとることができる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果は式ブロックとして格納される</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>語再生成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が押下された場合</t>
+    <rPh sb="1" eb="3">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積要素に分割</t>
+    <rPh sb="0" eb="3">
+      <t>セキヨウソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分割した式ブロック</t>
+    <rPh sb="0" eb="2">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>があった場合</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WordブロックとしてWordブロックの表示場所に表示する</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式ブロックとして式ブロックの表示場所に表示する</t>
+    <rPh sb="0" eb="1">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類ブロックとして分類ブロックの表示場所に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -747,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E346B36A-DDDB-4C4D-9A84-5074A81185E5}">
-  <dimension ref="C2:Z42"/>
+  <dimension ref="C2:Z66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2588,6 +2716,350 @@
         <v>26</v>
       </c>
     </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24AE4A3-33D7-48FC-A1CD-1848B55F7F13}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
